--- a/MMK 31701.003.0012.xlsx
+++ b/MMK 31701.003.0012.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\opilane\Documents\andmetarkus\Timber-AS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C2BB190-894D-4B3A-8B6C-0965FB1E40C7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92899C87-3CF5-49D1-BA9F-F639552E82E1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11805" xr2:uid="{2C59EDCB-20E1-4E47-9724-134EACAAC690}"/>
   </bookViews>
